--- a/data_participantes/Alys_20251120_203615/experimento_Alys_20251120_203615.xlsx
+++ b/data_participantes/Alys_20251120_203615/experimento_Alys_20251120_203615.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sin SmartScore</t>
+          <t>Con SmartScore</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar, Amy’s Macaroni &amp; Cheese (frozen)</t>
+          <t>Velveeta, Amy’s Macaroni &amp; Cheese (frozen)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -702,57 +702,57 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>22.245574</v>
+        <v>2.340801</v>
       </c>
       <c r="H2" t="n">
-        <v>22.245574</v>
+        <v>2.340801</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-11-20T20:36:29.133456</t>
+          <t>2025-12-02T09:42:03.152706</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1763670989.133456</v>
+        <v>1764668523.152706</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-11-20T20:36:51.379030</t>
+          <t>2025-12-02T09:42:05.493507</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1763671011.37903</v>
+        <v>1764668525.493507</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-11-20T20:36:51.379030</t>
+          <t>2025-12-02T09:42:05.493507</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1763671011.37903</v>
+        <v>1764668525.493507</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-11-20T20:36:29.045766</t>
+          <t>2025-12-02T09:42:03.069325</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-11-20T20:37:46.755856</t>
+          <t>2025-12-02T09:42:39.331342</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1763670989.045766</v>
+        <v>1764668523.069325</v>
       </c>
       <c r="R2" t="n">
-        <v>1763671066.755856</v>
+        <v>1764668559.331342</v>
       </c>
       <c r="S2" t="n">
-        <v>77.71008999999999</v>
+        <v>36.262017</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Annies vs Hormel</t>
+          <t>Velveeta vs Hormel</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -762,22 +762,22 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Mac&amp;Cheese vs Velveeta</t>
+          <t>Mac&amp;Cheese vs Annies</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Velveeta</t>
+          <t>Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Hormel vs Velveeta</t>
+          <t>Hormel vs Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Hormel</t>
+          <t>Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar, Amy’s Macaroni &amp; Cheese (frozen)</t>
+          <t>Velveeta, Amy’s Macaroni &amp; Cheese (frozen)</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr"/>
@@ -819,7 +819,7 @@
         <v>0.601</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22.245574</v>
+        <v>2.340801</v>
       </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
@@ -828,7 +828,7 @@
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>{"Annie’s Shells &amp; White Cheddar_pack": [0.0, 0.0, 0.5, 0.6], "Annie’s Shells &amp; White Cheddar_claim": [0.0, 0.6, 0.5, 1.0], "Amy’s Macaroni &amp; Cheese (frozen)_pack": [0.5, 0.0, 1.0, 0.6], "Amy’s Macaroni &amp; Cheese (frozen)_claim": [0.5, 0.6, 1.0, 1.0]}</t>
+          <t>{"Velveeta_pack": [0.0, 0.0, 0.5, 0.6], "Velveeta_claim": [0.0, 0.6, 0.5, 1.0], "Amy’s Macaroni &amp; Cheese (frozen)_pack": [0.5, 0.0, 1.0, 0.6], "Amy’s Macaroni &amp; Cheese (frozen)_claim": [0.5, 0.6, 1.0, 1.0]}</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr"/>
@@ -850,7 +850,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sin SmartScore</t>
+          <t>Con SmartScore</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -860,66 +860,66 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kraft Macaroni &amp; Cheese Dinner, Velveeta</t>
+          <t>Kraft Macaroni &amp; Cheese Dinner, Annie’s Shells &amp; White Cheddar</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Velveeta</t>
+          <t>Kraft Macaroni &amp; Cheese Dinner</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.212745</v>
+        <v>1.69329</v>
       </c>
       <c r="H3" t="n">
-        <v>2.212745</v>
+        <v>1.69329</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-11-20T20:36:51.379030</t>
+          <t>2025-12-02T09:42:05.493507</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1763671011.37903</v>
+        <v>1764668525.493507</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-11-20T20:36:53.591775</t>
+          <t>2025-12-02T09:42:07.186797</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1763671013.591775</v>
+        <v>1764668527.186797</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2025-11-20T20:36:53.591775</t>
+          <t>2025-12-02T09:42:07.186797</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1763671013.591775</v>
+        <v>1764668527.186797</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-11-20T20:36:29.045766</t>
+          <t>2025-12-02T09:42:03.069325</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-11-20T20:37:46.755856</t>
+          <t>2025-12-02T09:42:39.331342</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1763670989.045766</v>
+        <v>1764668523.069325</v>
       </c>
       <c r="R3" t="n">
-        <v>1763671066.755856</v>
+        <v>1764668559.331342</v>
       </c>
       <c r="S3" t="n">
-        <v>77.71008999999999</v>
+        <v>36.262017</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Annies vs Hormel</t>
+          <t>Velveeta vs Hormel</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -929,22 +929,22 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Mac&amp;Cheese vs Velveeta</t>
+          <t>Mac&amp;Cheese vs Annies</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Velveeta</t>
+          <t>Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Hormel vs Velveeta</t>
+          <t>Hormel vs Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Hormel</t>
+          <t>Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -964,17 +964,19 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Kraft Macaroni &amp; Cheese Dinner, Velveeta</t>
+          <t>Kraft Macaroni &amp; Cheese Dinner, Annie’s Shells &amp; White Cheddar</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Velveeta</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr"/>
+          <t>Kraft Macaroni &amp; Cheese Dinner</t>
+        </is>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.601</v>
+      </c>
       <c r="AH3" t="inlineStr">
         <is>
           <t>Kraft Macaroni &amp; Cheese Dinner</t>
@@ -985,15 +987,19 @@
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="n">
-        <v>2.212745</v>
+        <v>1.69329</v>
       </c>
       <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>{"Kraft Macaroni &amp; Cheese Dinner_pack": [0.0, 0.0, 0.5, 0.6], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.0, 0.6, 0.5, 1.0], "Velveeta_pack": [0.5, 0.0, 1.0, 0.6], "Velveeta_claim": [0.5, 0.6, 1.0, 1.0]}</t>
+          <t>{"Kraft Macaroni &amp; Cheese Dinner_pack": [0.0, 0.0, 0.5, 0.6], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.0, 0.6, 0.5, 1.0], "Kraft Macaroni &amp; Cheese Dinner_smartcore": [0.2, 0.9, 0.3, 1.0], "Annie’s Shells &amp; White Cheddar_pack": [0.5, 0.0, 1.0, 0.6], "Annie’s Shells &amp; White Cheddar_claim": [0.5, 0.6, 1.0, 1.0]}</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr"/>
@@ -1015,7 +1021,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sin SmartScore</t>
+          <t>Con SmartScore</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1025,66 +1031,66 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Amy’s Macaroni &amp; Cheese (frozen), Velveeta</t>
+          <t>Amy’s Macaroni &amp; Cheese (frozen), Kraft Macaroni &amp; Cheese Dinner</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
+          <t>Kraft Macaroni &amp; Cheese Dinner</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>75.857359</v>
+        <v>3.580237</v>
       </c>
       <c r="H4" t="n">
-        <v>75.857359</v>
+        <v>3.580237</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-11-20T20:36:53.591775</t>
+          <t>2025-12-02T09:42:07.186797</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1763671013.591775</v>
+        <v>1764668527.186797</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-11-20T20:37:18.066166</t>
+          <t>2025-12-02T09:42:10.767034</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1763671038.066166</v>
+        <v>1764668530.767034</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2025-11-20T20:38:09.449134</t>
+          <t>2025-12-02T09:42:10.767034</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1763671089.449134</v>
+        <v>1764668530.767034</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-11-20T20:36:29.045766</t>
+          <t>2025-12-02T09:42:03.069325</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2025-11-20T20:37:46.755856</t>
+          <t>2025-12-02T09:42:39.331342</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>1763670989.045766</v>
+        <v>1764668523.069325</v>
       </c>
       <c r="R4" t="n">
-        <v>1763671066.755856</v>
+        <v>1764668559.331342</v>
       </c>
       <c r="S4" t="n">
-        <v>77.71008999999999</v>
+        <v>36.262017</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Annies vs Hormel</t>
+          <t>Velveeta vs Hormel</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1094,22 +1100,22 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Mac&amp;Cheese vs Velveeta</t>
+          <t>Mac&amp;Cheese vs Annies</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Velveeta</t>
+          <t>Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Hormel vs Velveeta</t>
+          <t>Hormel vs Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Hormel</t>
+          <t>Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1129,18 +1135,18 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Amy’s Macaroni &amp; Cheese (frozen), Velveeta</t>
+          <t>Amy’s Macaroni &amp; Cheese (frozen), Kraft Macaroni &amp; Cheese Dinner</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
+          <t>Kraft Macaroni &amp; Cheese Dinner</t>
         </is>
       </c>
       <c r="AG4" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.601</v>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
@@ -1153,14 +1159,18 @@
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
-        <v>75.857359</v>
-      </c>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
+        <v>3.580237</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>{"Amy’s Macaroni &amp; Cheese (frozen)_pack": [0.0, 0.0, 0.5, 0.6], "Amy’s Macaroni &amp; Cheese (frozen)_claim": [0.0, 0.6, 0.5, 1.0], "Velveeta_pack": [0.5, 0.0, 1.0, 0.6], "Velveeta_claim": [0.5, 0.6, 1.0, 1.0]}</t>
+          <t>{"Amy’s Macaroni &amp; Cheese (frozen)_pack": [0.0, 0.0, 0.5, 0.6], "Amy’s Macaroni &amp; Cheese (frozen)_claim": [0.0, 0.6, 0.5, 1.0], "Kraft Macaroni &amp; Cheese Dinner_pack": [0.5, 0.0, 1.0, 0.6], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.5, 0.6, 1.0, 1.0], "Kraft Macaroni &amp; Cheese Dinner_smartcore": [0.7, 0.9, 0.8, 1.0]}</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr"/>
@@ -1182,7 +1192,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sin SmartScore</t>
+          <t>Con SmartScore</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1192,62 +1202,62 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Nissin Chow Mein Teriyaki Beef, Nongshim Neoguri Spicy Seafood, Maruchan Ramen Sabor Pollo, Shin-ramyun</t>
+          <t>Nissin Chow Mein Teriyaki Beef, Nongshim Neoguri Spicy Seafood, Shin-ramyun, Maruchan Ramen Sabor Pollo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Maruchan Ramen Sabor Pollo</t>
+          <t>Nongshim Neoguri Spicy Seafood</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6.082081</v>
+        <v>4.574811</v>
       </c>
       <c r="H5" t="n">
-        <v>8.535869</v>
+        <v>4.657899</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-11-20T20:37:19.881245</t>
+          <t>2025-12-02T09:42:10.941910</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1763671039.881245</v>
+        <v>1764668530.94191</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-11-20T20:37:25.963326</t>
+          <t>2025-12-02T09:42:15.516721</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1763671045.963326</v>
+        <v>1764668535.516721</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2025-11-20T20:37:28.417114</t>
+          <t>2025-12-02T09:42:15.599809</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1763671048.417114</v>
+        <v>1764668535.599809</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-11-20T20:36:29.045766</t>
+          <t>2025-12-02T09:42:03.069325</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-11-20T20:37:46.755856</t>
+          <t>2025-12-02T09:42:39.331342</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>1763670989.045766</v>
+        <v>1764668523.069325</v>
       </c>
       <c r="R5" t="n">
-        <v>1763671066.755856</v>
+        <v>1764668559.331342</v>
       </c>
       <c r="S5" t="n">
-        <v>77.71008999999999</v>
+        <v>36.262017</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -1272,18 +1282,18 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Nissin Chow Mein Teriyaki Beef, Nongshim Neoguri Spicy Seafood, Maruchan Ramen Sabor Pollo, Shin-ramyun</t>
+          <t>Nissin Chow Mein Teriyaki Beef, Nongshim Neoguri Spicy Seafood, Shin-ramyun, Maruchan Ramen Sabor Pollo</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>Maruchan Ramen Sabor Pollo</t>
+          <t>Nongshim Neoguri Spicy Seafood</t>
         </is>
       </c>
       <c r="AG5" t="n">
-        <v>0.479</v>
+        <v>0.579</v>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
@@ -1296,12 +1306,16 @@
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>{"Nissin Chow Mein Teriyaki Beef_pack": [0.0, 0.0, 0.5, 0.4], "Nissin Chow Mein Teriyaki Beef_claim": [0.0, 0.4, 0.5, 0.8], "Nongshim Neoguri Spicy Seafood_pack": [0.5, 0.0, 1.0, 0.4], "Nongshim Neoguri Spicy Seafood_claim": [0.5, 0.4, 1.0, 0.8], "Maruchan Ramen Sabor Pollo_pack": [0.0, 0.5, 0.5, 0.9], "Maruchan Ramen Sabor Pollo_claim": [0.0, 0.9, 0.5, 1.0], "Shin-ramyun_pack": [0.5, 0.5, 1.0, 0.9], "Shin-ramyun_claim": [0.5, 0.9, 1.0, 1.0]}</t>
+          <t>{"Nissin Chow Mein Teriyaki Beef_pack": [0.0, 0.0, 0.5, 0.4], "Nissin Chow Mein Teriyaki Beef_claim": [0.0, 0.4, 0.5, 0.8], "Nongshim Neoguri Spicy Seafood_pack": [0.5, 0.0, 1.0, 0.4], "Nongshim Neoguri Spicy Seafood_claim": [0.5, 0.4, 1.0, 0.8], "Nongshim Neoguri Spicy Seafood_smartcore": [0.7, 0.75, 0.8, 0.85], "Shin-ramyun_pack": [0.0, 0.5, 0.5, 0.9], "Shin-ramyun_claim": [0.0, 0.9, 0.5, 1.0], "Maruchan Ramen Sabor Pollo_pack": [0.5, 0.5, 1.0, 0.9], "Maruchan Ramen Sabor Pollo_claim": [0.5, 0.9, 1.0, 1.0]}</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr"/>
@@ -1323,7 +1337,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sin SmartScore</t>
+          <t>Con SmartScore</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1333,62 +1347,62 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Wild Planet Wild Tuna Pasta Salad</t>
+          <t>Jack Link’s Beef Jerky Original</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Wild Planet Wild Tuna Pasta Salad</t>
+          <t>Jack Link’s Beef Jerky Original</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>11.235261</v>
+        <v>22.692077</v>
       </c>
       <c r="H6" t="n">
-        <v>9.888904</v>
+        <v>23.6533</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-11-20T20:37:36.866828</t>
+          <t>2025-12-02T09:42:15.677917</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1763671056.866828</v>
+        <v>1764668535.677917</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-11-20T20:37:39.747938</t>
+          <t>2025-12-02T09:42:38.368846</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1763671059.747938</v>
+        <v>1764668558.368846</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2025-11-20T20:37:46.755732</t>
+          <t>2025-12-02T09:42:39.331217</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1763671066.755732</v>
+        <v>1764668559.331217</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-11-20T20:36:29.045766</t>
+          <t>2025-12-02T09:42:03.069325</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2025-11-20T20:37:46.755856</t>
+          <t>2025-12-02T09:42:39.331342</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>1763670989.045766</v>
+        <v>1764668523.069325</v>
       </c>
       <c r="R6" t="n">
-        <v>1763671066.755856</v>
+        <v>1764668559.331342</v>
       </c>
       <c r="S6" t="n">
-        <v>77.71008999999999</v>
+        <v>36.262017</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -1413,18 +1427,18 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Wild Planet Wild Tuna Pasta Salad</t>
+          <t>Jack Link’s Beef Jerky Original</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>Wild Planet Wild Tuna Pasta Salad</t>
+          <t>Jack Link’s Beef Jerky Original</t>
         </is>
       </c>
       <c r="AG6" t="n">
-        <v>0.715</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
@@ -1442,28 +1456,28 @@
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>{"Seq-1": {"Wild Planet Wild Tuna Pasta Salad_pack": [0.2, 0.0, 0.8, 0.7], "Wild Planet Wild Tuna Pasta Salad_claim": [0.8, 0.0, 1.0, 1.0], "Wild Planet Wild Tuna Pasta Salad_nutri": [0.0, 0.0, 0.2, 1.0]}}</t>
+          <t>{"Seq-1": {"Jack Link’s Beef Jerky Original_pack": [0.2, 0.0, 0.8, 0.7], "Jack Link’s Beef Jerky Original_claim": [0.8, 0.0, 1.0, 1.0], "Jack Link’s Beef Jerky Original_nutri": [0.0, 0.0, 0.2, 1.0]}}</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>{"ChickenSalad": 6.661, "JackLinks": 1.534, "RedKidneyBeansCurry": 3.186, "TunaPasta": 6.508}</t>
+          <t>{"ChickenSalad": 3.785, "JackLinks": 5.404, "RedKidneyBeansCurry": 1.579, "TunaPasta": 12.378}</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>{"ChickenSalad": 1, "JackLinks": 1, "RedKidneyBeansCurry": 1, "TunaPasta": 2}</t>
+          <t>{"ChickenSalad": 2, "JackLinks": 2, "RedKidneyBeansCurry": 1, "TunaPasta": 2}</t>
         </is>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>[{"timestamp": "2025-11-20T20:37:28.513858", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-11-20T20:37:35.174553", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-11-20T20:37:35.174553", "event": "next", "image": "ChickenSalad"}, {"timestamp": "2025-11-20T20:37:35.261666", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-11-20T20:37:36.795497", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-11-20T20:37:36.795497", "event": "next", "image": "JackLinks"}, {"timestamp": "2025-11-20T20:37:36.866828", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-11-20T20:37:41.044761", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-11-20T20:37:41.044761", "event": "next", "image": "TunaPasta"}, {"timestamp": "2025-11-20T20:37:41.146094", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-11-20T20:37:44.331986", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-11-20T20:37:44.331986", "event": "prev", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-11-20T20:37:44.425461", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-11-20T20:37:46.755732", "event": "finalize", "image": "TunaPasta"}]</t>
+          <t>[{"timestamp": "2025-12-02T09:42:15.677917", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-02T09:42:18.609552", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-12-02T09:42:18.609552", "event": "next", "image": "JackLinks"}, {"timestamp": "2025-12-02T09:42:18.694682", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-02T09:42:19.891109", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-02T09:42:19.891109", "event": "next", "image": "TunaPasta"}, {"timestamp": "2025-12-02T09:42:19.983463", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T09:42:22.768821", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T09:42:22.768821", "event": "next", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T09:42:22.849613", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T09:42:24.428854", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T09:42:24.428854", "event": "prev", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T09:42:24.517131", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T09:42:25.516790", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T09:42:25.516790", "event": "prev", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T09:42:25.591941", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-02T09:42:36.773979", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-02T09:42:36.773979", "event": "prev", "image": "TunaPasta"}, {"timestamp": "2025-12-02T09:42:36.858945", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-02T09:42:39.331217", "event": "finalize", "image": "JackLinks"}]</t>
         </is>
       </c>
     </row>

--- a/data_participantes/Alys_20251120_203615/experimento_Alys_20251120_203615.xlsx
+++ b/data_participantes/Alys_20251120_203615/experimento_Alys_20251120_203615.xlsx
@@ -693,93 +693,93 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Velveeta, Amy’s Macaroni &amp; Cheese (frozen)</t>
+          <t>Annie’s Shells &amp; White Cheddar, Kraft Macaroni &amp; Cheese Dinner</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
+          <t>Kraft Macaroni &amp; Cheese Dinner</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.340801</v>
+        <v>2.072441</v>
       </c>
       <c r="H2" t="n">
-        <v>2.340801</v>
+        <v>2.072441</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:03.152706</t>
+          <t>2025-12-02T10:01:45.878383</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1764668523.152706</v>
+        <v>1764669705.878383</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:05.493507</t>
+          <t>2025-12-02T10:01:47.950824</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1764668525.493507</v>
+        <v>1764669707.950824</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:05.493507</t>
+          <t>2025-12-02T10:01:47.950824</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1764668525.493507</v>
+        <v>1764669707.950824</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:03.069325</t>
+          <t>2025-12-02T10:01:45.798969</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:39.331342</t>
+          <t>2025-12-02T10:02:00.681401</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1764668523.069325</v>
+        <v>1764669705.798969</v>
       </c>
       <c r="R2" t="n">
-        <v>1764668559.331342</v>
+        <v>1764669720.681401</v>
       </c>
       <c r="S2" t="n">
-        <v>36.262017</v>
+        <v>14.882432</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
+          <t>Annies vs Mac&amp;Cheese</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Mac&amp;Cheese</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
           <t>Velveeta vs Hormel</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Hormel</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Mac&amp;Cheese vs Annies</t>
-        </is>
-      </c>
       <c r="W2" t="inlineStr">
         <is>
+          <t>Velveeta</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Mac&amp;Cheese vs Velveeta</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
           <t>Mac&amp;Cheese</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Hormel vs Mac&amp;Cheese</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Mac&amp;Cheese</t>
-        </is>
-      </c>
       <c r="Z2" t="inlineStr">
         <is>
           <t>AB-2col</t>
@@ -797,18 +797,18 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Velveeta, Amy’s Macaroni &amp; Cheese (frozen)</t>
+          <t>Annie’s Shells &amp; White Cheddar, Kraft Macaroni &amp; Cheese Dinner</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Amy’s Macaroni &amp; Cheese (frozen)</t>
+          <t>Kraft Macaroni &amp; Cheese Dinner</t>
         </is>
       </c>
       <c r="AG2" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.601</v>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
@@ -819,16 +819,20 @@
         <v>0.601</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.340801</v>
+        <v>2.072441</v>
       </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>{"Velveeta_pack": [0.0, 0.0, 0.5, 0.6], "Velveeta_claim": [0.0, 0.6, 0.5, 1.0], "Amy’s Macaroni &amp; Cheese (frozen)_pack": [0.5, 0.0, 1.0, 0.6], "Amy’s Macaroni &amp; Cheese (frozen)_claim": [0.5, 0.6, 1.0, 1.0]}</t>
+          <t>{"Annie’s Shells &amp; White Cheddar_pack": [0.0, 0.0, 0.4, 0.48], "Annie’s Shells &amp; White Cheddar_claim": [0.0, 0.6, 0.4, 0.8], "Kraft Macaroni &amp; Cheese Dinner_pack": [0.5, 0.0, 0.8, 0.48], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.5, 0.6, 0.8, 0.8], "Kraft Macaroni &amp; Cheese Dinner_smartcore": [0.7, 0.9, 0.6400000000000001, 0.8]}</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr"/>
@@ -860,93 +864,93 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kraft Macaroni &amp; Cheese Dinner, Annie’s Shells &amp; White Cheddar</t>
+          <t>Velveeta, Amy’s Macaroni &amp; Cheese (frozen)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kraft Macaroni &amp; Cheese Dinner</t>
+          <t>Velveeta</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.69329</v>
+        <v>1.66401</v>
       </c>
       <c r="H3" t="n">
-        <v>1.69329</v>
+        <v>1.66401</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:05.493507</t>
+          <t>2025-12-02T10:01:47.950824</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1764668525.493507</v>
+        <v>1764669707.950824</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:07.186797</t>
+          <t>2025-12-02T10:01:49.614834</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1764668527.186797</v>
+        <v>1764669709.614834</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:07.186797</t>
+          <t>2025-12-02T10:01:49.614834</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1764668527.186797</v>
+        <v>1764669709.614834</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:03.069325</t>
+          <t>2025-12-02T10:01:45.798969</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:39.331342</t>
+          <t>2025-12-02T10:02:00.681401</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1764668523.069325</v>
+        <v>1764669705.798969</v>
       </c>
       <c r="R3" t="n">
-        <v>1764668559.331342</v>
+        <v>1764669720.681401</v>
       </c>
       <c r="S3" t="n">
-        <v>36.262017</v>
+        <v>14.882432</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
+          <t>Annies vs Mac&amp;Cheese</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Mac&amp;Cheese</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
           <t>Velveeta vs Hormel</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Hormel</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Mac&amp;Cheese vs Annies</t>
-        </is>
-      </c>
       <c r="W3" t="inlineStr">
         <is>
+          <t>Velveeta</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Mac&amp;Cheese vs Velveeta</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
           <t>Mac&amp;Cheese</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Hormel vs Mac&amp;Cheese</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Mac&amp;Cheese</t>
-        </is>
-      </c>
       <c r="Z3" t="inlineStr">
         <is>
           <t>AB-2col</t>
@@ -964,19 +968,17 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Kraft Macaroni &amp; Cheese Dinner, Annie’s Shells &amp; White Cheddar</t>
+          <t>Velveeta, Amy’s Macaroni &amp; Cheese (frozen)</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Kraft Macaroni &amp; Cheese Dinner</t>
-        </is>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.601</v>
-      </c>
+          <t>Velveeta</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr">
         <is>
           <t>Kraft Macaroni &amp; Cheese Dinner</t>
@@ -987,19 +989,15 @@
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="n">
-        <v>1.69329</v>
+        <v>1.66401</v>
       </c>
       <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>{"Kraft Macaroni &amp; Cheese Dinner_pack": [0.0, 0.0, 0.5, 0.6], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.0, 0.6, 0.5, 1.0], "Kraft Macaroni &amp; Cheese Dinner_smartcore": [0.2, 0.9, 0.3, 1.0], "Annie’s Shells &amp; White Cheddar_pack": [0.5, 0.0, 1.0, 0.6], "Annie’s Shells &amp; White Cheddar_claim": [0.5, 0.6, 1.0, 1.0]}</t>
+          <t>{"Velveeta_pack": [0.0, 0.0, 0.4, 0.48], "Velveeta_claim": [0.0, 0.6, 0.4, 0.8], "Amy’s Macaroni &amp; Cheese (frozen)_pack": [0.5, 0.0, 0.8, 0.48], "Amy’s Macaroni &amp; Cheese (frozen)_claim": [0.5, 0.6, 0.8, 0.8]}</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr"/>
@@ -1031,7 +1029,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Amy’s Macaroni &amp; Cheese (frozen), Kraft Macaroni &amp; Cheese Dinner</t>
+          <t>Kraft Macaroni &amp; Cheese Dinner, Velveeta</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1040,84 +1038,84 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.580237</v>
+        <v>1.405663</v>
       </c>
       <c r="H4" t="n">
-        <v>3.580237</v>
+        <v>1.405663</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:07.186797</t>
+          <t>2025-12-02T10:01:49.614834</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1764668527.186797</v>
+        <v>1764669709.614834</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:10.767034</t>
+          <t>2025-12-02T10:01:51.020497</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1764668530.767034</v>
+        <v>1764669711.020497</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:10.767034</t>
+          <t>2025-12-02T10:01:51.020497</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1764668530.767034</v>
+        <v>1764669711.020497</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:03.069325</t>
+          <t>2025-12-02T10:01:45.798969</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:39.331342</t>
+          <t>2025-12-02T10:02:00.681401</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>1764668523.069325</v>
+        <v>1764669705.798969</v>
       </c>
       <c r="R4" t="n">
-        <v>1764668559.331342</v>
+        <v>1764669720.681401</v>
       </c>
       <c r="S4" t="n">
-        <v>36.262017</v>
+        <v>14.882432</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
+          <t>Annies vs Mac&amp;Cheese</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Mac&amp;Cheese</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
           <t>Velveeta vs Hormel</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Hormel</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Mac&amp;Cheese vs Annies</t>
-        </is>
-      </c>
       <c r="W4" t="inlineStr">
         <is>
+          <t>Velveeta</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Mac&amp;Cheese vs Velveeta</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
           <t>Mac&amp;Cheese</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Hormel vs Mac&amp;Cheese</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Mac&amp;Cheese</t>
-        </is>
-      </c>
       <c r="Z4" t="inlineStr">
         <is>
           <t>AB-2col</t>
@@ -1135,7 +1133,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Amy’s Macaroni &amp; Cheese (frozen), Kraft Macaroni &amp; Cheese Dinner</t>
+          <t>Kraft Macaroni &amp; Cheese Dinner, Velveeta</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr"/>
@@ -1159,7 +1157,7 @@
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
-        <v>3.580237</v>
+        <v>1.405663</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -1170,7 +1168,7 @@
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>{"Amy’s Macaroni &amp; Cheese (frozen)_pack": [0.0, 0.0, 0.5, 0.6], "Amy’s Macaroni &amp; Cheese (frozen)_claim": [0.0, 0.6, 0.5, 1.0], "Kraft Macaroni &amp; Cheese Dinner_pack": [0.5, 0.0, 1.0, 0.6], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.5, 0.6, 1.0, 1.0], "Kraft Macaroni &amp; Cheese Dinner_smartcore": [0.7, 0.9, 0.8, 1.0]}</t>
+          <t>{"Kraft Macaroni &amp; Cheese Dinner_pack": [0.0, 0.0, 0.4, 0.48], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.0, 0.6, 0.4, 0.8], "Kraft Macaroni &amp; Cheese Dinner_smartcore": [0.2, 0.9, 0.24, 0.8], "Velveeta_pack": [0.5, 0.0, 0.8, 0.48], "Velveeta_claim": [0.5, 0.6, 0.8, 0.8]}</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr"/>
@@ -1202,62 +1200,62 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Nissin Chow Mein Teriyaki Beef, Nongshim Neoguri Spicy Seafood, Shin-ramyun, Maruchan Ramen Sabor Pollo</t>
+          <t>Maruchan Ramen Sabor Pollo, Nongshim Neoguri Spicy Seafood, Nissin Chow Mein Teriyaki Beef, Shin-ramyun</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Nongshim Neoguri Spicy Seafood</t>
+          <t>Shin-ramyun</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.574811</v>
+        <v>1.707805</v>
       </c>
       <c r="H5" t="n">
-        <v>4.657899</v>
+        <v>1.809031</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:10.941910</t>
+          <t>2025-12-02T10:01:51.250304</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1764668530.94191</v>
+        <v>1764669711.250304</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:15.516721</t>
+          <t>2025-12-02T10:01:52.958109</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1764668535.516721</v>
+        <v>1764669712.958109</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:15.599809</t>
+          <t>2025-12-02T10:01:53.059335</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1764668535.599809</v>
+        <v>1764669713.059335</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:03.069325</t>
+          <t>2025-12-02T10:01:45.798969</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:39.331342</t>
+          <t>2025-12-02T10:02:00.681401</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>1764668523.069325</v>
+        <v>1764669705.798969</v>
       </c>
       <c r="R5" t="n">
-        <v>1764668559.331342</v>
+        <v>1764669720.681401</v>
       </c>
       <c r="S5" t="n">
-        <v>36.262017</v>
+        <v>14.882432</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -1282,19 +1280,17 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Nissin Chow Mein Teriyaki Beef, Nongshim Neoguri Spicy Seafood, Shin-ramyun, Maruchan Ramen Sabor Pollo</t>
+          <t>Maruchan Ramen Sabor Pollo, Nongshim Neoguri Spicy Seafood, Nissin Chow Mein Teriyaki Beef, Shin-ramyun</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>Nongshim Neoguri Spicy Seafood</t>
-        </is>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.579</v>
-      </c>
+          <t>Shin-ramyun</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr">
         <is>
           <t>Nongshim Neoguri Spicy Seafood</t>
@@ -1315,7 +1311,7 @@
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>{"Nissin Chow Mein Teriyaki Beef_pack": [0.0, 0.0, 0.5, 0.4], "Nissin Chow Mein Teriyaki Beef_claim": [0.0, 0.4, 0.5, 0.8], "Nongshim Neoguri Spicy Seafood_pack": [0.5, 0.0, 1.0, 0.4], "Nongshim Neoguri Spicy Seafood_claim": [0.5, 0.4, 1.0, 0.8], "Nongshim Neoguri Spicy Seafood_smartcore": [0.7, 0.75, 0.8, 0.85], "Shin-ramyun_pack": [0.0, 0.5, 0.5, 0.9], "Shin-ramyun_claim": [0.0, 0.9, 0.5, 1.0], "Maruchan Ramen Sabor Pollo_pack": [0.5, 0.5, 1.0, 0.9], "Maruchan Ramen Sabor Pollo_claim": [0.5, 0.9, 1.0, 1.0]}</t>
+          <t>{"Maruchan Ramen Sabor Pollo_pack": [0.0, 0.0, 0.4, 0.32000000000000006], "Maruchan Ramen Sabor Pollo_claim": [0.0, 0.4, 0.4, 0.6400000000000001], "Nongshim Neoguri Spicy Seafood_pack": [0.5, 0.0, 0.8, 0.32000000000000006], "Nongshim Neoguri Spicy Seafood_claim": [0.5, 0.4, 0.8, 0.6400000000000001], "Nongshim Neoguri Spicy Seafood_smartcore": [0.7, 0.75, 0.6400000000000001, 0.68], "Nissin Chow Mein Teriyaki Beef_pack": [0.0, 0.5, 0.4, 0.7200000000000001], "Nissin Chow Mein Teriyaki Beef_claim": [0.0, 0.9, 0.4, 0.8], "Shin-ramyun_pack": [0.5, 0.5, 0.8, 0.7200000000000001], "Shin-ramyun_claim": [0.5, 0.9, 0.8, 0.8]}</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr"/>
@@ -1356,53 +1352,53 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>22.692077</v>
+        <v>6.569458</v>
       </c>
       <c r="H6" t="n">
-        <v>23.6533</v>
+        <v>4.509956</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:15.677917</t>
+          <t>2025-12-02T10:01:56.171268</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1764668535.677917</v>
+        <v>1764669716.171268</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:38.368846</t>
+          <t>2025-12-02T10:01:59.700349</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1764668558.368846</v>
+        <v>1764669719.700349</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:39.331217</t>
+          <t>2025-12-02T10:02:00.681224</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1764668559.331217</v>
+        <v>1764669720.681224</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:03.069325</t>
+          <t>2025-12-02T10:01:45.798969</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2025-12-02T09:42:39.331342</t>
+          <t>2025-12-02T10:02:00.681401</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>1764668523.069325</v>
+        <v>1764669705.798969</v>
       </c>
       <c r="R6" t="n">
-        <v>1764668559.331342</v>
+        <v>1764669720.681401</v>
       </c>
       <c r="S6" t="n">
-        <v>36.262017</v>
+        <v>14.882432</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -1456,28 +1452,28 @@
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>{"Seq-1": {"Jack Link’s Beef Jerky Original_pack": [0.2, 0.0, 0.8, 0.7], "Jack Link’s Beef Jerky Original_claim": [0.8, 0.0, 1.0, 1.0], "Jack Link’s Beef Jerky Original_nutri": [0.0, 0.0, 0.2, 1.0]}}</t>
+          <t>{"Seq-1": {"Jack Link’s Beef Jerky Original_pack": [0.2, 0.0, 0.6400000000000001, 0.5599999999999999], "Jack Link’s Beef Jerky Original_claim": [0.8, 0.0, 0.8, 0.8], "Jack Link’s Beef Jerky Original_nutri": [0.0, 0.0, 0.16000000000000003, 0.8]}}</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>{"ChickenSalad": 3.785, "JackLinks": 5.404, "RedKidneyBeansCurry": 1.579, "TunaPasta": 12.378}</t>
+          <t>{"ChickenSalad": 1.177, "JackLinks": 3.161, "RedKidneyBeansCurry": 1.772, "TunaPasta": 1.089}</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>{"ChickenSalad": 2, "JackLinks": 2, "RedKidneyBeansCurry": 1, "TunaPasta": 2}</t>
+          <t>{"ChickenSalad": 1, "JackLinks": 2, "RedKidneyBeansCurry": 1, "TunaPasta": 1}</t>
         </is>
       </c>
       <c r="AS6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>[{"timestamp": "2025-12-02T09:42:15.677917", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-02T09:42:18.609552", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-12-02T09:42:18.609552", "event": "next", "image": "JackLinks"}, {"timestamp": "2025-12-02T09:42:18.694682", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-02T09:42:19.891109", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-02T09:42:19.891109", "event": "next", "image": "TunaPasta"}, {"timestamp": "2025-12-02T09:42:19.983463", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T09:42:22.768821", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T09:42:22.768821", "event": "next", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T09:42:22.849613", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T09:42:24.428854", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T09:42:24.428854", "event": "prev", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T09:42:24.517131", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T09:42:25.516790", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T09:42:25.516790", "event": "prev", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T09:42:25.591941", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-02T09:42:36.773979", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-02T09:42:36.773979", "event": "prev", "image": "TunaPasta"}, {"timestamp": "2025-12-02T09:42:36.858945", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-02T09:42:39.331217", "event": "finalize", "image": "JackLinks"}]</t>
+          <t>[{"timestamp": "2025-12-02T10:01:53.132509", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T10:01:54.904736", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T10:01:54.904736", "event": "next", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T10:01:55.002840", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-02T10:01:56.091635", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-02T10:01:56.091635", "event": "next", "image": "TunaPasta"}, {"timestamp": "2025-12-02T10:01:56.171268", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-02T10:01:57.369628", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-12-02T10:01:57.369628", "event": "next", "image": "JackLinks"}, {"timestamp": "2025-12-02T10:01:57.466486", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T10:01:58.643741", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T10:01:58.643741", "event": "prev", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T10:01:58.718477", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-02T10:02:00.681224", "event": "finalize", "image": "JackLinks"}]</t>
         </is>
       </c>
     </row>

--- a/data_participantes/Alys_20251120_203615/experimento_Alys_20251120_203615.xlsx
+++ b/data_participantes/Alys_20251120_203615/experimento_Alys_20251120_203615.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Con SmartScore</t>
+          <t>Sin SmartScore</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -702,53 +702,53 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.072441</v>
+        <v>1.951113</v>
       </c>
       <c r="H2" t="n">
-        <v>2.072441</v>
+        <v>1.951113</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-12-02T10:01:45.878383</t>
+          <t>2025-12-03T09:34:42.458162</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1764669705.878383</v>
+        <v>1764754482.458162</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-12-02T10:01:47.950824</t>
+          <t>2025-12-03T09:34:44.409275</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1764669707.950824</v>
+        <v>1764754484.409275</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-12-02T10:01:47.950824</t>
+          <t>2025-12-03T09:34:44.409275</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1764669707.950824</v>
+        <v>1764754484.409275</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-12-02T10:01:45.798969</t>
+          <t>2025-12-03T09:34:42.350983</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-12-02T10:02:00.681401</t>
+          <t>2025-12-03T09:35:00.877945</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1764669705.798969</v>
+        <v>1764754482.350983</v>
       </c>
       <c r="R2" t="n">
-        <v>1764669720.681401</v>
+        <v>1764754500.877945</v>
       </c>
       <c r="S2" t="n">
-        <v>14.882432</v>
+        <v>18.526962</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Mac&amp;Cheese</t>
+          <t>Velveeta</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -819,20 +819,16 @@
         <v>0.601</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.072441</v>
+        <v>1.951113</v>
       </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>{"Annie’s Shells &amp; White Cheddar_pack": [0.0, 0.0, 0.4, 0.48], "Annie’s Shells &amp; White Cheddar_claim": [0.0, 0.6, 0.4, 0.8], "Kraft Macaroni &amp; Cheese Dinner_pack": [0.5, 0.0, 0.8, 0.48], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.5, 0.6, 0.8, 0.8], "Kraft Macaroni &amp; Cheese Dinner_smartcore": [0.7, 0.9, 0.6400000000000001, 0.8]}</t>
+          <t>{"Annie’s Shells &amp; White Cheddar_pack": [0.0, 0.0, 0.4, 0.48], "Annie’s Shells &amp; White Cheddar_claim": [0.0, 0.6, 0.4, 0.8], "Kraft Macaroni &amp; Cheese Dinner_pack": [0.5, 0.0, 0.8, 0.48], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.5, 0.6, 0.8, 0.8]}</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr"/>
@@ -854,7 +850,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Con SmartScore</t>
+          <t>Sin SmartScore</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -873,53 +869,53 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.66401</v>
+        <v>1.062822</v>
       </c>
       <c r="H3" t="n">
-        <v>1.66401</v>
+        <v>1.062822</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-12-02T10:01:47.950824</t>
+          <t>2025-12-03T09:34:44.409275</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1764669707.950824</v>
+        <v>1764754484.409275</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-12-02T10:01:49.614834</t>
+          <t>2025-12-03T09:34:45.472097</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1764669709.614834</v>
+        <v>1764754485.472097</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2025-12-02T10:01:49.614834</t>
+          <t>2025-12-03T09:34:45.472097</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1764669709.614834</v>
+        <v>1764754485.472097</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-12-02T10:01:45.798969</t>
+          <t>2025-12-03T09:34:42.350983</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-12-02T10:02:00.681401</t>
+          <t>2025-12-03T09:35:00.877945</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1764669705.798969</v>
+        <v>1764754482.350983</v>
       </c>
       <c r="R3" t="n">
-        <v>1764669720.681401</v>
+        <v>1764754500.877945</v>
       </c>
       <c r="S3" t="n">
-        <v>14.882432</v>
+        <v>18.526962</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -948,7 +944,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Mac&amp;Cheese</t>
+          <t>Velveeta</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -989,7 +985,7 @@
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="n">
-        <v>1.66401</v>
+        <v>1.062822</v>
       </c>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
@@ -1019,7 +1015,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Con SmartScore</t>
+          <t>Sin SmartScore</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1034,57 +1030,57 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kraft Macaroni &amp; Cheese Dinner</t>
+          <t>Velveeta</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.405663</v>
+        <v>1.27518</v>
       </c>
       <c r="H4" t="n">
-        <v>1.405663</v>
+        <v>1.27518</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-12-02T10:01:49.614834</t>
+          <t>2025-12-03T09:34:45.472097</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1764669709.614834</v>
+        <v>1764754485.472097</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-12-02T10:01:51.020497</t>
+          <t>2025-12-03T09:34:46.747277</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1764669711.020497</v>
+        <v>1764754486.747277</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2025-12-02T10:01:51.020497</t>
+          <t>2025-12-03T09:34:46.747277</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1764669711.020497</v>
+        <v>1764754486.747277</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-12-02T10:01:45.798969</t>
+          <t>2025-12-03T09:34:42.350983</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2025-12-02T10:02:00.681401</t>
+          <t>2025-12-03T09:35:00.877945</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>1764669705.798969</v>
+        <v>1764754482.350983</v>
       </c>
       <c r="R4" t="n">
-        <v>1764669720.681401</v>
+        <v>1764754500.877945</v>
       </c>
       <c r="S4" t="n">
-        <v>14.882432</v>
+        <v>18.526962</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1113,7 +1109,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Mac&amp;Cheese</t>
+          <t>Velveeta</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1140,12 +1136,10 @@
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Kraft Macaroni &amp; Cheese Dinner</t>
-        </is>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.601</v>
-      </c>
+          <t>Velveeta</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr">
         <is>
           <t>Kraft Macaroni &amp; Cheese Dinner</t>
@@ -1157,18 +1151,14 @@
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
-        <v>1.405663</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
+        <v>1.27518</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>{"Kraft Macaroni &amp; Cheese Dinner_pack": [0.0, 0.0, 0.4, 0.48], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.0, 0.6, 0.4, 0.8], "Kraft Macaroni &amp; Cheese Dinner_smartcore": [0.2, 0.9, 0.24, 0.8], "Velveeta_pack": [0.5, 0.0, 0.8, 0.48], "Velveeta_claim": [0.5, 0.6, 0.8, 0.8]}</t>
+          <t>{"Kraft Macaroni &amp; Cheese Dinner_pack": [0.0, 0.0, 0.4, 0.48], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.0, 0.6, 0.4, 0.8], "Velveeta_pack": [0.5, 0.0, 0.8, 0.48], "Velveeta_claim": [0.5, 0.6, 0.8, 0.8]}</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr"/>
@@ -1190,7 +1180,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Con SmartScore</t>
+          <t>Sin SmartScore</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1200,62 +1190,62 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Maruchan Ramen Sabor Pollo, Nongshim Neoguri Spicy Seafood, Nissin Chow Mein Teriyaki Beef, Shin-ramyun</t>
+          <t>Maruchan Ramen Sabor Pollo, Nissin Chow Mein Teriyaki Beef, Shin-ramyun, Nongshim Neoguri Spicy Seafood</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Shin-ramyun</t>
+          <t>Nongshim Neoguri Spicy Seafood</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.707805</v>
+        <v>1.844801</v>
       </c>
       <c r="H5" t="n">
-        <v>1.809031</v>
+        <v>1.94017</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-12-02T10:01:51.250304</t>
+          <t>2025-12-03T09:34:46.958688</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1764669711.250304</v>
+        <v>1764754486.958688</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-12-02T10:01:52.958109</t>
+          <t>2025-12-03T09:34:48.803489</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1764669712.958109</v>
+        <v>1764754488.803489</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2025-12-02T10:01:53.059335</t>
+          <t>2025-12-03T09:34:48.898858</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1764669713.059335</v>
+        <v>1764754488.898858</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-12-02T10:01:45.798969</t>
+          <t>2025-12-03T09:34:42.350983</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-12-02T10:02:00.681401</t>
+          <t>2025-12-03T09:35:00.877945</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>1764669705.798969</v>
+        <v>1764754482.350983</v>
       </c>
       <c r="R5" t="n">
-        <v>1764669720.681401</v>
+        <v>1764754500.877945</v>
       </c>
       <c r="S5" t="n">
-        <v>14.882432</v>
+        <v>18.526962</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -1280,17 +1270,19 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Maruchan Ramen Sabor Pollo, Nongshim Neoguri Spicy Seafood, Nissin Chow Mein Teriyaki Beef, Shin-ramyun</t>
+          <t>Maruchan Ramen Sabor Pollo, Nissin Chow Mein Teriyaki Beef, Shin-ramyun, Nongshim Neoguri Spicy Seafood</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>Shin-ramyun</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr"/>
+          <t>Nongshim Neoguri Spicy Seafood</t>
+        </is>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.579</v>
+      </c>
       <c r="AH5" t="inlineStr">
         <is>
           <t>Nongshim Neoguri Spicy Seafood</t>
@@ -1302,16 +1294,12 @@
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>{"Maruchan Ramen Sabor Pollo_pack": [0.0, 0.0, 0.4, 0.32000000000000006], "Maruchan Ramen Sabor Pollo_claim": [0.0, 0.4, 0.4, 0.6400000000000001], "Nongshim Neoguri Spicy Seafood_pack": [0.5, 0.0, 0.8, 0.32000000000000006], "Nongshim Neoguri Spicy Seafood_claim": [0.5, 0.4, 0.8, 0.6400000000000001], "Nongshim Neoguri Spicy Seafood_smartcore": [0.7, 0.75, 0.6400000000000001, 0.68], "Nissin Chow Mein Teriyaki Beef_pack": [0.0, 0.5, 0.4, 0.7200000000000001], "Nissin Chow Mein Teriyaki Beef_claim": [0.0, 0.9, 0.4, 0.8], "Shin-ramyun_pack": [0.5, 0.5, 0.8, 0.7200000000000001], "Shin-ramyun_claim": [0.5, 0.9, 0.8, 0.8]}</t>
+          <t>{"Maruchan Ramen Sabor Pollo_pack": [0.0, 0.0, 0.4, 0.32000000000000006], "Maruchan Ramen Sabor Pollo_claim": [0.0, 0.4, 0.4, 0.6400000000000001], "Nissin Chow Mein Teriyaki Beef_pack": [0.5, 0.0, 0.8, 0.32000000000000006], "Nissin Chow Mein Teriyaki Beef_claim": [0.5, 0.4, 0.8, 0.6400000000000001], "Shin-ramyun_pack": [0.0, 0.5, 0.4, 0.7200000000000001], "Shin-ramyun_claim": [0.0, 0.9, 0.4, 0.8], "Nongshim Neoguri Spicy Seafood_pack": [0.5, 0.5, 0.8, 0.7200000000000001], "Nongshim Neoguri Spicy Seafood_claim": [0.5, 0.9, 0.8, 0.8]}</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr"/>
@@ -1333,7 +1321,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Con SmartScore</t>
+          <t>Sin SmartScore</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1343,62 +1331,62 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Jack Link’s Beef Jerky Original</t>
+          <t>StarKist Chicken Creations (Chicken Salad)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Jack Link’s Beef Jerky Original</t>
+          <t>StarKist Chicken Creations (Chicken Salad)</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>6.569458</v>
+        <v>9.688551</v>
       </c>
       <c r="H6" t="n">
-        <v>4.509956</v>
+        <v>6.765482</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-12-02T10:01:56.171268</t>
+          <t>2025-12-03T09:34:54.112328</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1764669716.171268</v>
+        <v>1764754494.112328</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-12-02T10:01:59.700349</t>
+          <t>2025-12-03T09:34:58.668144</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1764669719.700349</v>
+        <v>1764754498.668144</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2025-12-02T10:02:00.681224</t>
+          <t>2025-12-03T09:35:00.877810</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1764669720.681224</v>
+        <v>1764754500.87781</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-12-02T10:01:45.798969</t>
+          <t>2025-12-03T09:34:42.350983</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2025-12-02T10:02:00.681401</t>
+          <t>2025-12-03T09:35:00.877945</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>1764669705.798969</v>
+        <v>1764754482.350983</v>
       </c>
       <c r="R6" t="n">
-        <v>1764669720.681401</v>
+        <v>1764754500.877945</v>
       </c>
       <c r="S6" t="n">
-        <v>14.882432</v>
+        <v>18.526962</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -1423,18 +1411,18 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Jack Link’s Beef Jerky Original</t>
+          <t>StarKist Chicken Creations (Chicken Salad)</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>Jack Link’s Beef Jerky Original</t>
+          <t>StarKist Chicken Creations (Chicken Salad)</t>
         </is>
       </c>
       <c r="AG6" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
@@ -1452,17 +1440,17 @@
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>{"Seq-1": {"Jack Link’s Beef Jerky Original_pack": [0.2, 0.0, 0.6400000000000001, 0.5599999999999999], "Jack Link’s Beef Jerky Original_claim": [0.8, 0.0, 0.8, 0.8], "Jack Link’s Beef Jerky Original_nutri": [0.0, 0.0, 0.16000000000000003, 0.8]}}</t>
+          <t>{"Seq-1": {"StarKist Chicken Creations (Chicken Salad)_pack": [0.2, 0.0, 0.6400000000000001, 0.5599999999999999], "StarKist Chicken Creations (Chicken Salad)_claim": [0.8, 0.0, 0.8, 0.8], "StarKist Chicken Creations (Chicken Salad)_nutri": [0.0, 0.0, 0.16000000000000003, 0.8]}}</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>{"ChickenSalad": 1.177, "JackLinks": 3.161, "RedKidneyBeansCurry": 1.772, "TunaPasta": 1.089}</t>
+          <t>{"ChickenSalad": 4.07, "JackLinks": 1.737, "RedKidneyBeansCurry": 2.533, "TunaPasta": 3.207}</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>{"ChickenSalad": 1, "JackLinks": 2, "RedKidneyBeansCurry": 1, "TunaPasta": 1}</t>
+          <t>{"ChickenSalad": 2, "JackLinks": 1, "RedKidneyBeansCurry": 1, "TunaPasta": 1}</t>
         </is>
       </c>
       <c r="AS6" t="n">
@@ -1473,7 +1461,7 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>[{"timestamp": "2025-12-02T10:01:53.132509", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T10:01:54.904736", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T10:01:54.904736", "event": "next", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-02T10:01:55.002840", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-02T10:01:56.091635", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-02T10:01:56.091635", "event": "next", "image": "TunaPasta"}, {"timestamp": "2025-12-02T10:01:56.171268", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-02T10:01:57.369628", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-12-02T10:01:57.369628", "event": "next", "image": "JackLinks"}, {"timestamp": "2025-12-02T10:01:57.466486", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T10:01:58.643741", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T10:01:58.643741", "event": "prev", "image": "ChickenSalad"}, {"timestamp": "2025-12-02T10:01:58.718477", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-02T10:02:00.681224", "event": "finalize", "image": "JackLinks"}]</t>
+          <t>[{"timestamp": "2025-12-03T09:34:48.980795", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-03T09:34:50.717898", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-12-03T09:34:50.717898", "event": "next", "image": "JackLinks"}, {"timestamp": "2025-12-03T09:34:50.812192", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-03T09:34:54.019422", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-03T09:34:54.019422", "event": "next", "image": "TunaPasta"}, {"timestamp": "2025-12-03T09:34:54.112328", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-12-03T09:34:54.958769", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-12-03T09:34:54.958769", "event": "next", "image": "ChickenSalad"}, {"timestamp": "2025-12-03T09:34:55.040793", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-03T09:34:57.574163", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-03T09:34:57.574163", "event": "prev", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-03T09:34:57.653822", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-12-03T09:35:00.877810", "event": "finalize", "image": "ChickenSalad"}]</t>
         </is>
       </c>
     </row>

--- a/data_participantes/Alys_20251120_203615/experimento_Alys_20251120_203615.xlsx
+++ b/data_participantes/Alys_20251120_203615/experimento_Alys_20251120_203615.xlsx
@@ -693,7 +693,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar, Kraft Macaroni &amp; Cheese Dinner</t>
+          <t>Amy’s Macaroni &amp; Cheese (frozen), Kraft Macaroni &amp; Cheese Dinner</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -702,57 +702,57 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.951113</v>
+        <v>2.260152</v>
       </c>
       <c r="H2" t="n">
-        <v>1.951113</v>
+        <v>2.260152</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-12-03T09:34:42.458162</t>
+          <t>2025-12-03T16:03:06.815056</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1764754482.458162</v>
+        <v>1764777786.815056</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2025-12-03T09:34:44.409275</t>
+          <t>2025-12-03T16:03:09.075208</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1764754484.409275</v>
+        <v>1764777789.075208</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-12-03T09:34:44.409275</t>
+          <t>2025-12-03T16:03:09.075208</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1764754484.409275</v>
+        <v>1764777789.075208</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-12-03T09:34:42.350983</t>
+          <t>2025-12-03T16:03:06.721743</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-12-03T09:35:00.877945</t>
+          <t>2025-12-03T16:03:16.879491</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1764754482.350983</v>
+        <v>1764777786.721743</v>
       </c>
       <c r="R2" t="n">
-        <v>1764754500.877945</v>
+        <v>1764777796.879491</v>
       </c>
       <c r="S2" t="n">
-        <v>18.526962</v>
+        <v>10.157748</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Annies vs Mac&amp;Cheese</t>
+          <t>Hormel vs Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -762,22 +762,22 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Velveeta vs Hormel</t>
+          <t>Annies vs Velveeta</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Velveeta</t>
+          <t>Annies</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Mac&amp;Cheese vs Velveeta</t>
+          <t>Mac&amp;Cheese vs Annies</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Velveeta</t>
+          <t>Annies</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Annie’s Shells &amp; White Cheddar, Kraft Macaroni &amp; Cheese Dinner</t>
+          <t>Amy’s Macaroni &amp; Cheese (frozen), Kraft Macaroni &amp; Cheese Dinner</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr"/>
@@ -819,7 +819,7 @@
         <v>0.601</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.951113</v>
+        <v>2.260152</v>
       </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
@@ -828,7 +828,7 @@
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>{"Annie’s Shells &amp; White Cheddar_pack": [0.0, 0.0, 0.4, 0.48], "Annie’s Shells &amp; White Cheddar_claim": [0.0, 0.6, 0.4, 0.8], "Kraft Macaroni &amp; Cheese Dinner_pack": [0.5, 0.0, 0.8, 0.48], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.5, 0.6, 0.8, 0.8]}</t>
+          <t>{"Amy’s Macaroni &amp; Cheese (frozen)_pack": [0.0, 0.0, 0.4, 0.48], "Amy’s Macaroni &amp; Cheese (frozen)_claim": [0.0, 0.6, 0.4, 0.8], "Kraft Macaroni &amp; Cheese Dinner_pack": [0.5, 0.0, 0.8, 0.48], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.5, 0.6, 0.8, 0.8]}</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr"/>
@@ -860,66 +860,66 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Velveeta, Amy’s Macaroni &amp; Cheese (frozen)</t>
+          <t>Annie’s Shells &amp; White Cheddar, Velveeta</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Velveeta</t>
+          <t>Annie’s Shells &amp; White Cheddar</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.062822</v>
+        <v>1.901109</v>
       </c>
       <c r="H3" t="n">
-        <v>1.062822</v>
+        <v>1.901109</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-12-03T09:34:44.409275</t>
+          <t>2025-12-03T16:03:09.075208</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1764754484.409275</v>
+        <v>1764777789.075208</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-12-03T09:34:45.472097</t>
+          <t>2025-12-03T16:03:10.976317</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1764754485.472097</v>
+        <v>1764777790.976317</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2025-12-03T09:34:45.472097</t>
+          <t>2025-12-03T16:03:10.976317</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1764754485.472097</v>
+        <v>1764777790.976317</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-12-03T09:34:42.350983</t>
+          <t>2025-12-03T16:03:06.721743</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-12-03T09:35:00.877945</t>
+          <t>2025-12-03T16:03:16.879491</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1764754482.350983</v>
+        <v>1764777786.721743</v>
       </c>
       <c r="R3" t="n">
-        <v>1764754500.877945</v>
+        <v>1764777796.879491</v>
       </c>
       <c r="S3" t="n">
-        <v>18.526962</v>
+        <v>10.157748</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Annies vs Mac&amp;Cheese</t>
+          <t>Hormel vs Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -929,22 +929,22 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Velveeta vs Hormel</t>
+          <t>Annies vs Velveeta</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Velveeta</t>
+          <t>Annies</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Mac&amp;Cheese vs Velveeta</t>
+          <t>Mac&amp;Cheese vs Annies</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Velveeta</t>
+          <t>Annies</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -964,17 +964,19 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Velveeta, Amy’s Macaroni &amp; Cheese (frozen)</t>
+          <t>Annie’s Shells &amp; White Cheddar, Velveeta</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Velveeta</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr"/>
+          <t>Annie’s Shells &amp; White Cheddar</t>
+        </is>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.547</v>
+      </c>
       <c r="AH3" t="inlineStr">
         <is>
           <t>Kraft Macaroni &amp; Cheese Dinner</t>
@@ -985,7 +987,7 @@
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="n">
-        <v>1.062822</v>
+        <v>1.901109</v>
       </c>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
@@ -993,7 +995,7 @@
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>{"Velveeta_pack": [0.0, 0.0, 0.4, 0.48], "Velveeta_claim": [0.0, 0.6, 0.4, 0.8], "Amy’s Macaroni &amp; Cheese (frozen)_pack": [0.5, 0.0, 0.8, 0.48], "Amy’s Macaroni &amp; Cheese (frozen)_claim": [0.5, 0.6, 0.8, 0.8]}</t>
+          <t>{"Annie’s Shells &amp; White Cheddar_pack": [0.0, 0.0, 0.4, 0.48], "Annie’s Shells &amp; White Cheddar_claim": [0.0, 0.6, 0.4, 0.8], "Velveeta_pack": [0.5, 0.0, 0.8, 0.48], "Velveeta_claim": [0.5, 0.6, 0.8, 0.8]}</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr"/>
@@ -1025,66 +1027,66 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kraft Macaroni &amp; Cheese Dinner, Velveeta</t>
+          <t>Kraft Macaroni &amp; Cheese Dinner, Annie’s Shells &amp; White Cheddar</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Velveeta</t>
+          <t>Annie’s Shells &amp; White Cheddar</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.27518</v>
+        <v>1.250719</v>
       </c>
       <c r="H4" t="n">
-        <v>1.27518</v>
+        <v>1.250719</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-12-03T09:34:45.472097</t>
+          <t>2025-12-03T16:03:10.976317</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1764754485.472097</v>
+        <v>1764777790.976317</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2025-12-03T09:34:46.747277</t>
+          <t>2025-12-03T16:03:12.227036</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1764754486.747277</v>
+        <v>1764777792.227036</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2025-12-03T09:34:46.747277</t>
+          <t>2025-12-03T16:03:12.227036</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1764754486.747277</v>
+        <v>1764777792.227036</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-12-03T09:34:42.350983</t>
+          <t>2025-12-03T16:03:06.721743</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2025-12-03T09:35:00.877945</t>
+          <t>2025-12-03T16:03:16.879491</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>1764754482.350983</v>
+        <v>1764777786.721743</v>
       </c>
       <c r="R4" t="n">
-        <v>1764754500.877945</v>
+        <v>1764777796.879491</v>
       </c>
       <c r="S4" t="n">
-        <v>18.526962</v>
+        <v>10.157748</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Annies vs Mac&amp;Cheese</t>
+          <t>Hormel vs Mac&amp;Cheese</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1094,22 +1096,22 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Velveeta vs Hormel</t>
+          <t>Annies vs Velveeta</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Velveeta</t>
+          <t>Annies</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Mac&amp;Cheese vs Velveeta</t>
+          <t>Mac&amp;Cheese vs Annies</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Velveeta</t>
+          <t>Annies</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1129,17 +1131,19 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Kraft Macaroni &amp; Cheese Dinner, Velveeta</t>
+          <t>Kraft Macaroni &amp; Cheese Dinner, Annie’s Shells &amp; White Cheddar</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Velveeta</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr"/>
+          <t>Annie’s Shells &amp; White Cheddar</t>
+        </is>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.547</v>
+      </c>
       <c r="AH4" t="inlineStr">
         <is>
           <t>Kraft Macaroni &amp; Cheese Dinner</t>
@@ -1151,14 +1155,14 @@
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
-        <v>1.27518</v>
+        <v>1.250719</v>
       </c>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>{"Kraft Macaroni &amp; Cheese Dinner_pack": [0.0, 0.0, 0.4, 0.48], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.0, 0.6, 0.4, 0.8], "Velveeta_pack": [0.5, 0.0, 0.8, 0.48], "Velveeta_claim": [0.5, 0.6, 0.8, 0.8]}</t>
+          <t>{"Kraft Macaroni &amp; Cheese Dinner_pack": [0.0, 0.0, 0.4, 0.48], "Kraft Macaroni &amp; Cheese Dinner_claim": [0.0, 0.6, 0.4, 0.8], "Annie’s Shells &amp; White Cheddar_pack": [0.5, 0.0, 0.8, 0.48], "Annie’s Shells &amp; White Cheddar_claim": [0.5, 0.6, 0.8, 0.8]}</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr"/>
@@ -1190,7 +1194,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Maruchan Ramen Sabor Pollo, Nissin Chow Mein Teriyaki Beef, Shin-ramyun, Nongshim Neoguri Spicy Seafood</t>
+          <t>Nissin Chow Mein Teriyaki Beef, Maruchan Ramen Sabor Pollo, Shin-ramyun, Nongshim Neoguri Spicy Seafood</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1199,53 +1203,53 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.844801</v>
+        <v>1.392507</v>
       </c>
       <c r="H5" t="n">
-        <v>1.94017</v>
+        <v>1.487095</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-12-03T09:34:46.958688</t>
+          <t>2025-12-03T16:03:12.502721</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1764754486.958688</v>
+        <v>1764777792.502721</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2025-12-03T09:34:48.803489</t>
+          <t>2025-12-03T16:03:13.895228</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1764754488.803489</v>
+        <v>1764777793.895228</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2025-12-03T09:34:48.898858</t>
+          <t>2025-12-03T16:03:13.989816</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1764754488.898858</v>
+        <v>1764777793.989816</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-12-03T09:34:42.350983</t>
+          <t>2025-12-03T16:03:06.721743</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-12-03T09:35:00.877945</t>
+          <t>2025-12-03T16:03:16.879491</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>1764754482.350983</v>
+        <v>1764777786.721743</v>
       </c>
       <c r="R5" t="n">
-        <v>1764754500.877945</v>
+        <v>1764777796.879491</v>
       </c>
       <c r="S5" t="n">
-        <v>18.526962</v>
+        <v>10.157748</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -1270,7 +1274,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Maruchan Ramen Sabor Pollo, Nissin Chow Mein Teriyaki Beef, Shin-ramyun, Nongshim Neoguri Spicy Seafood</t>
+          <t>Nissin Chow Mein Teriyaki Beef, Maruchan Ramen Sabor Pollo, Shin-ramyun, Nongshim Neoguri Spicy Seafood</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr"/>
@@ -1299,7 +1303,7 @@
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>{"Maruchan Ramen Sabor Pollo_pack": [0.0, 0.0, 0.4, 0.32000000000000006], "Maruchan Ramen Sabor Pollo_claim": [0.0, 0.4, 0.4, 0.6400000000000001], "Nissin Chow Mein Teriyaki Beef_pack": [0.5, 0.0, 0.8, 0.32000000000000006], "Nissin Chow Mein Teriyaki Beef_claim": [0.5, 0.4, 0.8, 0.6400000000000001], "Shin-ramyun_pack": [0.0, 0.5, 0.4, 0.7200000000000001], "Shin-ramyun_claim": [0.0, 0.9, 0.4, 0.8], "Nongshim Neoguri Spicy Seafood_pack": [0.5, 0.5, 0.8, 0.7200000000000001], "Nongshim Neoguri Spicy Seafood_claim": [0.5, 0.9, 0.8, 0.8]}</t>
+          <t>{"Nissin Chow Mein Teriyaki Beef_pack": [0.0, 0.0, 0.4, 0.32000000000000006], "Nissin Chow Mein Teriyaki Beef_claim": [0.0, 0.4, 0.4, 0.6400000000000001], "Maruchan Ramen Sabor Pollo_pack": [0.5, 0.0, 0.8, 0.32000000000000006], "Maruchan Ramen Sabor Pollo_claim": [0.5, 0.4, 0.8, 0.6400000000000001], "Shin-ramyun_pack": [0.0, 0.5, 0.4, 0.7200000000000001], "Shin-ramyun_claim": [0.0, 0.9, 0.4, 0.8], "Nongshim Neoguri Spicy Seafood_pack": [0.5, 0.5, 0.8, 0.7200000000000001], "Nongshim Neoguri Spicy Seafood_claim": [0.5, 0.9, 0.8, 0.8]}</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr"/>
@@ -1331,62 +1335,62 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>StarKist Chicken Creations (Chicken Salad)</t>
+          <t>RedKidneyBeansCurry</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>StarKist Chicken Creations (Chicken Salad)</t>
+          <t>RedKidneyBeansCurry</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>9.688551</v>
+        <v>1.728679</v>
       </c>
       <c r="H6" t="n">
-        <v>6.765482</v>
+        <v>2.806272</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-12-03T09:34:54.112328</t>
+          <t>2025-12-03T16:03:14.073099</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1764754494.112328</v>
+        <v>1764777794.073099</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2025-12-03T09:34:58.668144</t>
+          <t>2025-12-03T16:03:15.800621</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1764754498.668144</v>
+        <v>1764777795.800621</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2025-12-03T09:35:00.877810</t>
+          <t>2025-12-03T16:03:16.879371</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1764754500.87781</v>
+        <v>1764777796.879371</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-12-03T09:34:42.350983</t>
+          <t>2025-12-03T16:03:06.721743</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2025-12-03T09:35:00.877945</t>
+          <t>2025-12-03T16:03:16.879491</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>1764754482.350983</v>
+        <v>1764777786.721743</v>
       </c>
       <c r="R6" t="n">
-        <v>1764754500.877945</v>
+        <v>1764777796.879491</v>
       </c>
       <c r="S6" t="n">
-        <v>18.526962</v>
+        <v>10.157748</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -1411,19 +1415,17 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>StarKist Chicken Creations (Chicken Salad)</t>
+          <t>RedKidneyBeansCurry</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>StarKist Chicken Creations (Chicken Salad)</t>
-        </is>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.59</v>
-      </c>
+          <t>RedKidneyBeansCurry</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr">
         <is>
           <t>Wild Planet Wild Tuna Pasta Salad</t>
@@ -1440,28 +1442,28 @@
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>{"Seq-1": {"StarKist Chicken Creations (Chicken Salad)_pack": [0.2, 0.0, 0.6400000000000001, 0.5599999999999999], "StarKist Chicken Creations (Chicken Salad)_claim": [0.8, 0.0, 0.8, 0.8], "StarKist Chicken Creations (Chicken Salad)_nutri": [0.0, 0.0, 0.16000000000000003, 0.8]}}</t>
+          <t>{"Seq-1": {"RedKidneyBeansCurry_pack": [0.2, 0.0, 0.6400000000000001, 0.5599999999999999], "RedKidneyBeansCurry_claim": [0.8, 0.0, 0.8, 0.8], "RedKidneyBeansCurry_nutri": [0.0, 0.0, 0.16000000000000003, 0.8]}}</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>{"ChickenSalad": 4.07, "JackLinks": 1.737, "RedKidneyBeansCurry": 2.533, "TunaPasta": 3.207}</t>
+          <t>{"RedKidneyBeansCurry": 2.806}</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>{"ChickenSalad": 2, "JackLinks": 1, "RedKidneyBeansCurry": 1, "TunaPasta": 1}</t>
+          <t>{"RedKidneyBeansCurry": 1}</t>
         </is>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>[{"timestamp": "2025-12-03T09:34:48.980795", "event": "view", "image": "JackLinks"}, {"timestamp": "2025-12-03T09:34:50.717898", "event": "leave", "image": "JackLinks"}, {"timestamp": "2025-12-03T09:34:50.717898", "event": "next", "image": "JackLinks"}, {"timestamp": "2025-12-03T09:34:50.812192", "event": "view", "image": "TunaPasta"}, {"timestamp": "2025-12-03T09:34:54.019422", "event": "leave", "image": "TunaPasta"}, {"timestamp": "2025-12-03T09:34:54.019422", "event": "next", "image": "TunaPasta"}, {"timestamp": "2025-12-03T09:34:54.112328", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-12-03T09:34:54.958769", "event": "leave", "image": "ChickenSalad"}, {"timestamp": "2025-12-03T09:34:54.958769", "event": "next", "image": "ChickenSalad"}, {"timestamp": "2025-12-03T09:34:55.040793", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-03T09:34:57.574163", "event": "leave", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-03T09:34:57.574163", "event": "prev", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-03T09:34:57.653822", "event": "view", "image": "ChickenSalad"}, {"timestamp": "2025-12-03T09:35:00.877810", "event": "finalize", "image": "ChickenSalad"}]</t>
+          <t>[{"timestamp": "2025-12-03T16:03:14.073099", "event": "view", "image": "RedKidneyBeansCurry"}, {"timestamp": "2025-12-03T16:03:16.879371", "event": "finalize", "image": "RedKidneyBeansCurry"}]</t>
         </is>
       </c>
     </row>
